--- a/exports/comps.xlsx
+++ b/exports/comps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Location</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Newnan, Georgia</t>
+  </si>
+  <si>
+    <t>Ogden, Utah</t>
+  </si>
+  <si>
+    <t>Dubuque, Iowa</t>
+  </si>
+  <si>
+    <t>Muscle Shoals, Alabama</t>
   </si>
   <si>
     <t>DCI West</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -645,6 +654,30 @@
       </c>
       <c r="B24" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/exports/comps.xlsx
+++ b/exports/comps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Location</t>
   </si>
@@ -97,7 +97,37 @@
     <t>Muscle Shoals, Alabama</t>
   </si>
   <si>
+    <t>Cheyenne, Wyoming</t>
+  </si>
+  <si>
+    <t>Riverside, California</t>
+  </si>
+  <si>
+    <t>Clifton, New Jersey</t>
+  </si>
+  <si>
+    <t>Fort Collins, Colorado</t>
+  </si>
+  <si>
+    <t>DeKalb, Illinois</t>
+  </si>
+  <si>
+    <t>Little Rock, Arkansas</t>
+  </si>
+  <si>
+    <t>Vista, California</t>
+  </si>
+  <si>
+    <t>Ankeny, Iowa</t>
+  </si>
+  <si>
+    <t>Cerritos, California</t>
+  </si>
+  <si>
     <t>DCI West</t>
+  </si>
+  <si>
+    <t>Drums Along The Rockies</t>
   </si>
 </sst>
 </file>
@@ -455,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -592,7 +622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -600,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -608,7 +638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -616,7 +646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -624,7 +654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -632,7 +662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -640,7 +670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -648,7 +678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -656,7 +686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -664,7 +694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -672,12 +702,87 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/exports/comps.xlsx
+++ b/exports/comps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Location</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Boise, Idaho</t>
   </si>
   <si>
-    <t>Mankto, Minnesota</t>
+    <t>Mankato, Minnesota</t>
   </si>
   <si>
     <t>Newnan, Georgia</t>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>Cerritos, California</t>
+  </si>
+  <si>
+    <t>Canyon, Texas</t>
+  </si>
+  <si>
+    <t>Olathe, Kansas</t>
+  </si>
+  <si>
+    <t>Abilene, Texas</t>
+  </si>
+  <si>
+    <t>Broken Arrow, Oklahoma</t>
+  </si>
+  <si>
+    <t>Denton, Texas</t>
+  </si>
+  <si>
+    <t>Waco, Texas</t>
+  </si>
+  <si>
+    <t>Bellbrook, Ohio</t>
+  </si>
+  <si>
+    <t>Prairie View, Texas</t>
   </si>
   <si>
     <t>DCI West</t>
@@ -485,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,7 +635,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -742,7 +766,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -783,6 +807,70 @@
       </c>
       <c r="B36" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/exports/comps.xlsx
+++ b/exports/comps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Location</t>
   </si>
@@ -148,10 +148,25 @@
     <t>Prairie View, Texas</t>
   </si>
   <si>
+    <t>San Antonio, Texas</t>
+  </si>
+  <si>
+    <t>Landisville, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Brunswick, Ohio</t>
+  </si>
+  <si>
+    <t>Mesquite, Texas</t>
+  </si>
+  <si>
     <t>DCI West</t>
   </si>
   <si>
     <t>Drums Along The Rockies</t>
+  </si>
+  <si>
+    <t>DCI Southwestern</t>
   </si>
 </sst>
 </file>
@@ -509,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -766,7 +781,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -777,7 +792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -785,7 +800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -793,7 +808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -801,7 +816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -809,7 +824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -817,7 +832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -825,7 +840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -833,7 +848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -841,7 +856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -849,7 +864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -857,7 +872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -865,12 +880,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
